--- a/realme/AUGUST/All Details/05.08.2021/realme Bank Statement August-2021.xlsx
+++ b/realme/AUGUST/All Details/05.08.2021/realme Bank Statement August-2021.xlsx
@@ -2307,6 +2307,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,12 +2352,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2350,18 +2362,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3018,7 +3018,7 @@
   <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3211,12 +3211,10 @@
       <c r="C12" s="19">
         <v>250000</v>
       </c>
-      <c r="D12" s="175">
-        <v>15200</v>
-      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F12" s="220" t="s">
         <v>83</v>
@@ -3231,7 +3229,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="1"/>
@@ -3244,7 +3242,7 @@
       <c r="D14" s="207"/>
       <c r="E14" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="1"/>
@@ -3257,7 +3255,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
@@ -3270,7 +3268,7 @@
       <c r="D16" s="209"/>
       <c r="E16" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="8"/>
@@ -3283,7 +3281,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="217">
         <f>E16+C17-D17</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="8"/>
@@ -3299,7 +3297,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -3312,7 +3310,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F19" s="14"/>
       <c r="H19" s="1"/>
@@ -3324,7 +3322,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="217">
         <f>E19+C20-D20</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="7"/>
@@ -3337,7 +3335,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="217">
         <f>E20+C21-D21</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
@@ -3350,7 +3348,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="217">
         <f>E21+C22-D22</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="1"/>
@@ -3363,7 +3361,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="1"/>
@@ -3376,7 +3374,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="1"/>
@@ -3389,7 +3387,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="1"/>
@@ -3402,7 +3400,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="1"/>
@@ -3415,7 +3413,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="1"/>
@@ -3428,7 +3426,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
@@ -3441,7 +3439,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="1"/>
@@ -3454,7 +3452,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="1"/>
@@ -3467,7 +3465,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="1"/>
@@ -3480,7 +3478,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
@@ -3493,7 +3491,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="1"/>
@@ -3506,7 +3504,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="1"/>
@@ -3519,7 +3517,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="1"/>
@@ -3532,7 +3530,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="217">
         <f t="shared" si="0"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
@@ -3545,7 +3543,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="217">
         <f t="shared" ref="E37:E68" si="1">E36+C37-D37</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="1"/>
@@ -3558,7 +3556,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -3571,7 +3569,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="1"/>
@@ -3584,7 +3582,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
@@ -3597,7 +3595,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="1"/>
@@ -3610,7 +3608,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="1"/>
@@ -3623,7 +3621,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="1"/>
@@ -3636,7 +3634,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
@@ -3649,7 +3647,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
@@ -3662,7 +3660,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
@@ -3675,7 +3673,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
@@ -3687,7 +3685,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -3699,7 +3697,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -3711,7 +3709,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1"/>
@@ -3723,7 +3721,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="1"/>
@@ -3735,7 +3733,7 @@
       <c r="D52" s="19"/>
       <c r="E52" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="1"/>
@@ -3747,7 +3745,7 @@
       <c r="D53" s="19"/>
       <c r="E53" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="1"/>
@@ -3759,7 +3757,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="1"/>
@@ -3770,7 +3768,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="1"/>
@@ -3781,7 +3779,7 @@
       <c r="D56" s="19"/>
       <c r="E56" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="1"/>
@@ -3792,7 +3790,7 @@
       <c r="D57" s="19"/>
       <c r="E57" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="1"/>
@@ -3803,7 +3801,7 @@
       <c r="D58" s="19"/>
       <c r="E58" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="1"/>
@@ -3814,7 +3812,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="1"/>
@@ -3825,7 +3823,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="1"/>
@@ -3836,7 +3834,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="1"/>
@@ -3847,7 +3845,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="1"/>
@@ -3858,7 +3856,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="1"/>
@@ -3869,7 +3867,7 @@
       <c r="D64" s="19"/>
       <c r="E64" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="1"/>
@@ -3880,7 +3878,7 @@
       <c r="D65" s="19"/>
       <c r="E65" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="1"/>
@@ -3891,7 +3889,7 @@
       <c r="D66" s="19"/>
       <c r="E66" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="1"/>
@@ -3902,7 +3900,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="1"/>
@@ -3913,7 +3911,7 @@
       <c r="D68" s="19"/>
       <c r="E68" s="217">
         <f t="shared" si="1"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="1"/>
@@ -3924,7 +3922,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="217">
         <f t="shared" ref="E69:E81" si="2">E68+C69-D69</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="1"/>
@@ -3935,7 +3933,7 @@
       <c r="D70" s="19"/>
       <c r="E70" s="217">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="1"/>
@@ -3946,7 +3944,7 @@
       <c r="D71" s="19"/>
       <c r="E71" s="217">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="1"/>
@@ -3957,7 +3955,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="1"/>
@@ -3968,7 +3966,7 @@
       <c r="D73" s="19"/>
       <c r="E73" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="1"/>
@@ -3979,7 +3977,7 @@
       <c r="D74" s="19"/>
       <c r="E74" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="1"/>
@@ -3990,7 +3988,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="1"/>
@@ -4001,7 +3999,7 @@
       <c r="D76" s="19"/>
       <c r="E76" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="1"/>
@@ -4012,7 +4010,7 @@
       <c r="D77" s="19"/>
       <c r="E77" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="1"/>
@@ -4023,7 +4021,7 @@
       <c r="D78" s="19"/>
       <c r="E78" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="1"/>
@@ -4034,7 +4032,7 @@
       <c r="D79" s="19"/>
       <c r="E79" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="1"/>
@@ -4045,7 +4043,7 @@
       <c r="D80" s="19"/>
       <c r="E80" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="1"/>
@@ -4056,7 +4054,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="21">
         <f t="shared" si="2"/>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="1"/>
@@ -4069,11 +4067,11 @@
       </c>
       <c r="D82" s="21">
         <f>SUM(D4:D76)</f>
-        <v>3102700</v>
+        <v>3087500</v>
       </c>
       <c r="E82" s="32">
         <f>E70</f>
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="1"/>
@@ -4113,73 +4111,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
     </row>
     <row r="2" spans="1:26" s="125" customFormat="1" ht="18">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
     </row>
     <row r="3" spans="1:26" s="126" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="245" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="241"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="247"/>
       <c r="U3" s="50"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4188,58 +4186,58 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" s="128" customFormat="1">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="246" t="s">
+      <c r="D4" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="246" t="s">
+      <c r="F4" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="246" t="s">
+      <c r="G4" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="246" t="s">
+      <c r="H4" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="246" t="s">
+      <c r="I4" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="246" t="s">
+      <c r="J4" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="246" t="s">
+      <c r="K4" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="246" t="s">
+      <c r="L4" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="246" t="s">
+      <c r="M4" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="246" t="s">
+      <c r="N4" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="252" t="s">
+      <c r="O4" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="254" t="s">
+      <c r="P4" s="241" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="250" t="s">
+      <c r="Q4" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="248" t="s">
+      <c r="R4" s="252" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="127" t="s">
@@ -4252,24 +4250,24 @@
       <c r="Y4" s="130"/>
     </row>
     <row r="5" spans="1:26" s="128" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="243"/>
-      <c r="B5" s="245"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="255"/>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="249"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="240"/>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="255"/>
+      <c r="R5" s="253"/>
       <c r="S5" s="132" t="s">
         <v>44</v>
       </c>
@@ -7284,11 +7282,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7305,6 +7298,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17467,7 +17465,7 @@
   <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17623,7 +17621,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="36">
-        <v>1916951</v>
+        <v>1932151</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="210" t="s">
@@ -17664,7 +17662,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="174">
-        <v>328199</v>
+        <v>312999</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
